--- a/doc/乡村的家网站系统表结构.xlsx
+++ b/doc/乡村的家网站系统表结构.xlsx
@@ -8,22 +8,25 @@
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="用户表" sheetId="2" r:id="rId2"/>
-    <sheet name="用户信息更新流水" sheetId="3" r:id="rId3"/>
-    <sheet name="用户登录状态" sheetId="4" r:id="rId4"/>
-    <sheet name="房产" sheetId="5" r:id="rId5"/>
-    <sheet name="房产变更流水" sheetId="10" r:id="rId6"/>
-    <sheet name="房产附加信息" sheetId="6" r:id="rId7"/>
-    <sheet name="地产" sheetId="7" r:id="rId8"/>
-    <sheet name="地产附加信息" sheetId="8" r:id="rId9"/>
-    <sheet name="合作商产品" sheetId="9" r:id="rId10"/>
+    <sheet name="1.用户表" sheetId="2" r:id="rId2"/>
+    <sheet name="2.用户信息更新流水" sheetId="3" r:id="rId3"/>
+    <sheet name="3.用户登录状态" sheetId="4" r:id="rId4"/>
+    <sheet name="4.房产" sheetId="5" r:id="rId5"/>
+    <sheet name="5.房产变更流水" sheetId="10" r:id="rId6"/>
+    <sheet name="6.房产附加信息" sheetId="6" r:id="rId7"/>
+    <sheet name="7.地产" sheetId="7" r:id="rId8"/>
+    <sheet name="8.地产变更流水" sheetId="11" r:id="rId9"/>
+    <sheet name="9地产附加信息" sheetId="8" r:id="rId10"/>
+    <sheet name="10.合作商产品" sheetId="9" r:id="rId11"/>
+    <sheet name="11.合作商产品变更流水" sheetId="12" r:id="rId12"/>
+    <sheet name="12.新闻信息" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="345">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,27 +44,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新闻信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>记录新闻信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核流水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录审核信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品信息变更流水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录产品修改信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -399,10 +382,6 @@
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号（产权人）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -460,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出售，出租，使用权交换，经营权转让</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>土地用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A:耕地；B：林地；C:宅基地；D:荒地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,42 +524,21 @@
     <t>壤土</t>
   </si>
   <si>
-    <t>有效土层厚度</t>
-  </si>
-  <si>
     <t>大于150cm</t>
   </si>
   <si>
-    <t>土地肥力</t>
-  </si>
-  <si>
     <t>极高</t>
   </si>
   <si>
-    <t>地块形状</t>
-  </si>
-  <si>
     <t>规则</t>
   </si>
   <si>
-    <t>平整程度</t>
-  </si>
-  <si>
     <t>平整</t>
   </si>
   <si>
-    <t>灌溉条件</t>
-  </si>
-  <si>
     <t>基本满足</t>
   </si>
   <si>
-    <t>排水条件</t>
-  </si>
-  <si>
-    <t>供水</t>
-  </si>
-  <si>
     <t>已接通</t>
   </si>
   <si>
@@ -607,15 +557,9 @@
     <t>水泥路</t>
   </si>
   <si>
-    <t>机械化程度</t>
-  </si>
-  <si>
     <t>基本机械化</t>
   </si>
   <si>
-    <t>附属设施</t>
-  </si>
-  <si>
     <t>地块适合何种经营</t>
   </si>
   <si>
@@ -628,21 +572,6 @@
     <t>烟草</t>
   </si>
   <si>
-    <t>农村土地承包经营权证</t>
-  </si>
-  <si>
-    <t>权证有效期限</t>
-  </si>
-  <si>
-    <t>权属类型</t>
-  </si>
-  <si>
-    <t>个人</t>
-  </si>
-  <si>
-    <t>土地权证</t>
-  </si>
-  <si>
     <t>高速</t>
   </si>
   <si>
@@ -667,9 +596,6 @@
     <t>铁路</t>
   </si>
   <si>
-    <t>国道</t>
-  </si>
-  <si>
     <t>港口</t>
   </si>
   <si>
@@ -685,10 +611,6 @@
   </si>
   <si>
     <t>当地农民人均年纯收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扶持政策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,10 +628,6 @@
   <si>
     <t>CHAR(2)</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(200)</t>
@@ -1091,6 +1009,357 @@
   </si>
   <si>
     <t>land_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advantage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">region_introduction
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction_valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soil_texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效土层厚度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soil_thickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地肥力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soil_fertility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块形状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平整程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water_supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network_supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roadway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械化程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peripheral_matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_facilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_highway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_airport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_Highrail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_rail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_StateRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶持政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supp_policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：失效
+1：有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">region_introduction
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核后的发布时间，如果是修改产品，则是修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_user_his</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_user_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_house_his</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_house_extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_land_extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_land_his</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_service_his</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tn_news</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,8 +1416,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,12 +1598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1335,6 +1613,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1639,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1653,145 +1933,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="38">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="38">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="38">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="38">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="38">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="38">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="38">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="B12" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="38">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="38">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1802,10 +2135,331 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="34"/>
+    <col min="2" max="2" width="15.109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.8">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1820,22 +2474,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1843,16 +2497,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -1861,14 +2515,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="D3" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -1877,14 +2533,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="D4" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -1893,17 +2551,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="21"/>
+        <v>159</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>317</v>
+      </c>
       <c r="D5" s="21" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1911,14 +2571,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>313</v>
+      </c>
       <c r="D6" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -1927,14 +2589,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="21"/>
+        <v>316</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -1943,85 +2607,449 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="D8" s="21" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" ht="43.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>242</v>
+      </c>
       <c r="D9" s="21" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="20"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+    <row r="11" spans="1:6" ht="43.2">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="20"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="21"/>
+      <c r="F11" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>174</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="F13" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="16" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2035,22 +3063,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2058,16 +3086,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -2076,16 +3102,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="15"/>
     </row>
@@ -2094,14 +3118,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -2110,16 +3132,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -2128,13 +3148,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="15"/>
@@ -2144,13 +3162,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>328</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -2159,299 +3175,87 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="57.6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="43.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="15"/>
+      <c r="B12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2459,12 +3263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2478,22 +3282,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2501,16 +3305,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -2519,16 +3323,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="15"/>
     </row>
@@ -2537,14 +3341,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -2553,16 +3357,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -2571,13 +3375,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="15"/>
@@ -2587,13 +3391,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -2603,17 +3407,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2621,13 +3425,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="15"/>
@@ -2637,13 +3441,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="15"/>
@@ -2653,13 +3457,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="15"/>
@@ -2669,13 +3473,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="15"/>
@@ -2685,13 +3489,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="15"/>
@@ -2701,13 +3505,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="15"/>
@@ -2717,13 +3521,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="15"/>
@@ -2733,13 +3537,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="15"/>
@@ -2749,13 +3553,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="15"/>
@@ -2765,13 +3569,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="15"/>
@@ -2781,13 +3585,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="15"/>
@@ -2797,19 +3601,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8">
@@ -2817,19 +3621,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8">
@@ -2837,19 +3641,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2857,16 +3661,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -2875,16 +3679,459 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="43.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F24" s="15"/>
     </row>
@@ -2920,22 +4167,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2951,16 +4198,16 @@
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -2969,19 +4216,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2989,16 +4236,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -3007,16 +4254,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -3025,13 +4272,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -3170,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3188,22 +4435,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3211,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -3229,16 +4476,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -3247,19 +4494,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8">
@@ -3267,19 +4514,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8">
@@ -3287,19 +4534,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3307,16 +4554,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -3325,16 +4572,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -3343,16 +4590,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -3361,16 +4608,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -3379,16 +4626,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -3397,13 +4644,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="16"/>
@@ -3413,17 +4660,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3431,17 +4678,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3449,19 +4696,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3469,16 +4716,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -3487,16 +4734,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -3505,16 +4752,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -3523,13 +4770,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
@@ -3539,16 +4786,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -3557,13 +4804,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -3573,13 +4820,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="16"/>
@@ -3589,19 +4836,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3609,17 +4856,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3627,17 +4874,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3645,13 +4892,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="16"/>
@@ -3661,13 +4908,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16"/>
@@ -3677,13 +4924,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -3693,13 +4940,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -3709,13 +4956,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
@@ -3725,13 +4972,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
@@ -3741,13 +4988,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
@@ -3757,13 +5004,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
@@ -3773,17 +5020,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3791,13 +5038,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -3807,13 +5054,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="25"/>
@@ -3823,17 +5070,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3841,16 +5088,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>275</v>
+        <v>240</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -3859,13 +5106,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="16"/>
@@ -3875,13 +5122,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
@@ -3891,76 +5138,109 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="43.2">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="16"/>
+      <c r="F42" s="16" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="43.2">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="20"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8">
+      <c r="A45" s="20">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8">
+      <c r="A46" s="20">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3971,10 +5251,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3989,22 +5269,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4012,16 +5292,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -4030,16 +5310,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -4048,19 +5328,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8">
@@ -4068,19 +5348,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8">
@@ -4088,19 +5368,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4108,16 +5388,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -4126,16 +5406,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -4144,16 +5424,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -4162,16 +5442,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -4180,16 +5460,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -4198,13 +5478,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="16"/>
@@ -4214,17 +5494,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4232,17 +5512,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4250,19 +5530,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4270,16 +5550,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -4288,16 +5568,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -4306,16 +5586,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -4324,13 +5604,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
@@ -4340,16 +5620,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -4358,13 +5638,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -4374,13 +5654,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="16"/>
@@ -4390,19 +5670,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4410,17 +5690,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4428,17 +5708,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4446,13 +5726,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="16"/>
@@ -4462,13 +5742,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16"/>
@@ -4478,13 +5758,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -4494,13 +5774,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -4510,13 +5790,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
@@ -4526,13 +5806,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
@@ -4542,13 +5822,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
@@ -4558,13 +5838,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
@@ -4574,17 +5854,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4592,13 +5872,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -4608,13 +5888,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="25"/>
@@ -4624,17 +5904,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4642,16 +5922,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -4660,13 +5940,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="16"/>
@@ -4676,13 +5956,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
@@ -4692,76 +5972,106 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="43.2">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="16"/>
+      <c r="F42" s="16" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="43.2">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="20"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8">
+      <c r="A45" s="20">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8">
+      <c r="A46" s="20">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="16" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4774,13 +6084,13 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
@@ -4788,22 +6098,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4811,16 +6121,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>337</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -4829,14 +6139,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="D3" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -4845,27 +6157,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="D4" s="21" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="28.8">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>260</v>
+      </c>
       <c r="D5" s="21" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="16"/>
@@ -4875,11 +6191,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>261</v>
+      </c>
       <c r="D6" s="21" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -4889,11 +6207,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="3" t="s">
-        <v>71</v>
+        <v>119</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>262</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="16"/>
@@ -4909,22 +6229,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="28"/>
     <col min="2" max="2" width="17.21875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="28" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="28" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
@@ -4936,22 +6257,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.2">
       <c r="A1" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4959,16 +6280,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -4977,16 +6298,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -4995,17 +6316,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="D4" s="21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5013,17 +6336,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>266</v>
+      </c>
       <c r="D5" s="21" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5031,10 +6356,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+        <v>125</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>268</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
     </row>
@@ -5043,14 +6372,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="D7" s="21" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -5059,14 +6390,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="D8" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -5075,16 +6408,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+        <v>126</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E9" s="27"/>
       <c r="F9" s="31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5092,13 +6429,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+        <v>271</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="E10" s="27"/>
       <c r="F10" s="31" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5106,13 +6447,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+        <v>273</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E11" s="27"/>
       <c r="F11" s="31" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5120,13 +6465,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+        <v>275</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E12" s="27"/>
       <c r="F12" s="31" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5134,13 +6483,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+        <v>277</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E13" s="27"/>
       <c r="F13" s="31" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5148,13 +6501,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+        <v>279</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E14" s="27"/>
       <c r="F14" s="31" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5162,13 +6519,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+        <v>281</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E15" s="27"/>
       <c r="F15" s="31" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5176,13 +6537,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+        <v>283</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="32" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5190,13 +6555,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+        <v>135</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="32" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5204,13 +6573,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
+        <v>136</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="32" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5218,13 +6591,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="32" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5232,13 +6609,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
+        <v>288</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="32" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5246,10 +6627,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+        <v>291</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>295</v>
+      </c>
       <c r="E21" s="22"/>
       <c r="F21" s="16"/>
     </row>
@@ -5258,13 +6643,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+        <v>141</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="32" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5272,53 +6661,67 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+        <v>143</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="32" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="B24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.8">
       <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="B25" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8">
       <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="17" t="s">
-        <v>165</v>
+      <c r="B26" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5326,31 +6729,33 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="D27" s="21" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" ht="28.8">
+    <row r="28" spans="1:6">
       <c r="A28" s="29">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
@@ -5358,15 +6763,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="21"/>
+        <v>243</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>242</v>
+      </c>
       <c r="D29" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
@@ -5374,11 +6779,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>244</v>
+      </c>
       <c r="D30" s="21" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="16"/>
@@ -5388,15 +6795,89 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>246</v>
+      </c>
       <c r="D31" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="16" t="s">
-        <v>189</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="16" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5408,271 +6889,655 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="36"/>
-    <col min="2" max="2" width="15.109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="37" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="36"/>
+    <col min="1" max="1" width="8.88671875" style="28"/>
+    <col min="2" max="2" width="17.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11" style="28" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="28"/>
+    <col min="10" max="10" width="13.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2">
+    <row r="1" spans="1:7" ht="16.2">
       <c r="A1" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="D3" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="D4" s="21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>266</v>
+      </c>
       <c r="D5" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>175</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>267</v>
+      </c>
       <c r="D6" s="21" t="s">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8">
-      <c r="A7" s="35">
+    <row r="7" spans="1:7">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="B7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="35">
+      <c r="B8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="35">
+      <c r="B10" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="35">
+      <c r="E12" s="27"/>
+      <c r="F12" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="B13" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:6" ht="28.8">
-      <c r="A15" s="35">
+      <c r="B14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B15" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="35">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.8">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" customFormat="1" ht="43.2">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" ht="43.2">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="16" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/乡村的家网站系统表结构.xlsx
+++ b/doc/乡村的家网站系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="899"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="899" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="10.合作商产品" sheetId="9" r:id="rId11"/>
     <sheet name="11.合作商产品变更流水" sheetId="12" r:id="rId12"/>
     <sheet name="12.新闻信息" sheetId="13" r:id="rId13"/>
+    <sheet name="员工信息表" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="355">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,12 +423,6 @@
   </si>
   <si>
     <t>A:住宅房产；B：城镇经营房产；C:厂房；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：一般用户
-1：合作商户
-2：管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1360,6 +1355,52 @@
   </si>
   <si>
     <t>tn_news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个文件名用分号分割：
+file1;file2;file3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：一般用户
+1：合作商户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1615,6 +1656,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1921,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1937,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>252</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>253</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>1</v>
@@ -1954,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>2</v>
@@ -1968,7 +2015,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D4" s="38"/>
     </row>
@@ -1980,7 +2027,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>3</v>
@@ -1991,10 +2038,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D6" s="38"/>
     </row>
@@ -2003,10 +2050,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D7" s="38"/>
     </row>
@@ -2015,10 +2062,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D8" s="38"/>
     </row>
@@ -2027,10 +2074,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D9" s="38"/>
     </row>
@@ -2039,10 +2086,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" s="38"/>
     </row>
@@ -2051,10 +2098,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="38"/>
     </row>
@@ -2063,10 +2110,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" s="38"/>
     </row>
@@ -2075,10 +2122,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="38"/>
     </row>
@@ -2087,19 +2134,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="38">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>350</v>
+      </c>
       <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4">
@@ -2177,10 +2230,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -2195,10 +2248,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -2213,13 +2266,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>49</v>
@@ -2231,13 +2284,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="16"/>
@@ -2247,13 +2300,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>262</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -2263,17 +2316,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2281,17 +2334,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2299,17 +2352,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2317,17 +2370,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2335,17 +2388,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2353,17 +2406,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2371,17 +2424,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2389,13 +2442,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
@@ -2405,13 +2458,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
@@ -2421,13 +2474,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
@@ -2437,13 +2490,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>307</v>
-      </c>
       <c r="D17" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
@@ -2456,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2468,7 +2521,7 @@
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2500,7 +2553,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -2518,7 +2571,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -2533,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>63</v>
@@ -2551,19 +2604,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2574,10 +2627,10 @@
         <v>93</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
@@ -2589,51 +2642,53 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="28.8">
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>240</v>
+      <c r="B8" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16"/>
+        <v>346</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="41" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
@@ -2641,87 +2696,85 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="16" t="s">
-        <v>320</v>
-      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="43.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>174</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8">
@@ -2729,17 +2782,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>309</v>
+        <v>184</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16" t="s">
-        <v>310</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="16" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2751,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2763,7 +2834,7 @@
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2795,7 +2866,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -2813,7 +2884,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -2828,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>63</v>
@@ -2846,19 +2917,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2869,10 +2940,10 @@
         <v>93</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
@@ -2884,51 +2955,53 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="28.8">
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>240</v>
+      <c r="B8" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16"/>
+        <v>346</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="41" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
@@ -2936,87 +3009,85 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="16" t="s">
-        <v>320</v>
-      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="43.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>174</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8">
@@ -3024,17 +3095,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>309</v>
+        <v>184</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16" t="s">
-        <v>310</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="16" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3086,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3" t="s">
@@ -3102,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -3118,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3132,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3148,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -3162,11 +3251,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -3176,13 +3265,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="16"/>
@@ -3192,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>22</v>
@@ -3211,14 +3300,14 @@
         <v>100</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6">
@@ -3226,17 +3315,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8">
@@ -3244,17 +3333,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3263,12 +3352,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3305,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>50</v>
@@ -3323,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>51</v>
@@ -3346,7 +3435,9 @@
       <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
@@ -3357,13 +3448,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>353</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>354</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>49</v>
@@ -3375,330 +3466,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="43.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3706,12 +3493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3751,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>63</v>
@@ -3789,7 +3576,9 @@
       <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
@@ -3806,7 +3595,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>49</v>
@@ -3840,7 +3629,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -3887,7 +3676,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>66</v>
@@ -3903,10 +3692,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="15"/>
@@ -3919,7 +3708,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -3935,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>66</v>
@@ -3954,7 +3743,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="15"/>
@@ -4039,7 +3828,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="43.2">
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4056,7 +3845,452 @@
         <v>49</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>104</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8">
@@ -4417,10 +4651,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F44"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4458,13 +4692,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>49</v>
@@ -4476,13 +4710,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>49</v>
@@ -4497,7 +4731,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>63</v>
@@ -4506,7 +4740,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8">
@@ -4514,13 +4748,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>49</v>
@@ -4537,16 +4771,16 @@
         <v>82</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4554,13 +4788,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>197</v>
-      </c>
       <c r="D7" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -4572,13 +4806,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -4590,10 +4824,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
@@ -4608,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -4626,13 +4860,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -4647,10 +4881,10 @@
         <v>83</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="16"/>
@@ -4663,14 +4897,14 @@
         <v>84</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4681,10 +4915,10 @@
         <v>96</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
@@ -4699,10 +4933,10 @@
         <v>86</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>49</v>
@@ -4719,10 +4953,10 @@
         <v>87</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>49</v>
@@ -4737,10 +4971,10 @@
         <v>88</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>49</v>
@@ -4755,10 +4989,10 @@
         <v>89</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -4770,13 +5004,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>215</v>
-      </c>
       <c r="D19" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
@@ -4786,13 +5020,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>217</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>49</v>
@@ -4807,10 +5041,10 @@
         <v>95</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -4820,13 +5054,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="16"/>
@@ -4836,13 +5070,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>221</v>
-      </c>
       <c r="D23" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -4856,17 +5090,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>223</v>
-      </c>
       <c r="D24" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4874,17 +5108,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>225</v>
-      </c>
       <c r="D25" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4895,10 +5129,10 @@
         <v>92</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="16"/>
@@ -4908,13 +5142,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16"/>
@@ -4927,10 +5161,10 @@
         <v>97</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -4943,10 +5177,10 @@
         <v>98</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -4959,10 +5193,10 @@
         <v>99</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
@@ -4975,10 +5209,10 @@
         <v>101</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
@@ -4988,13 +5222,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>234</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
@@ -5004,10 +5238,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>22</v>
@@ -5020,17 +5254,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5041,10 +5275,10 @@
         <v>102</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -5054,10 +5288,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>22</v>
@@ -5070,51 +5304,53 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2">
       <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>240</v>
+      <c r="B38" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="16"/>
+        <v>346</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="41" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
@@ -5122,13 +5358,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
@@ -5138,87 +5374,85 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" ht="43.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="16" t="s">
-        <v>320</v>
-      </c>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" ht="43.2">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>174</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="20">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="16" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28.8">
@@ -5226,21 +5460,39 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>309</v>
+        <v>184</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="20"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8">
+      <c r="A47" s="20">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5251,10 +5503,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F44"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5292,13 +5544,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>49</v>
@@ -5310,13 +5562,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>49</v>
@@ -5331,7 +5583,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>63</v>
@@ -5340,7 +5592,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8">
@@ -5348,13 +5600,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>49</v>
@@ -5371,16 +5623,16 @@
         <v>82</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5388,13 +5640,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>197</v>
-      </c>
       <c r="D7" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -5406,13 +5658,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5424,10 +5676,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
@@ -5442,10 +5694,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -5460,13 +5712,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -5481,10 +5733,10 @@
         <v>83</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="16"/>
@@ -5497,14 +5749,14 @@
         <v>84</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5515,10 +5767,10 @@
         <v>96</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
@@ -5533,10 +5785,10 @@
         <v>86</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>49</v>
@@ -5553,10 +5805,10 @@
         <v>87</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>49</v>
@@ -5571,10 +5823,10 @@
         <v>88</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>49</v>
@@ -5589,10 +5841,10 @@
         <v>89</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -5604,13 +5856,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>215</v>
-      </c>
       <c r="D19" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
@@ -5620,13 +5872,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>217</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>49</v>
@@ -5641,10 +5893,10 @@
         <v>95</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -5654,13 +5906,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="16"/>
@@ -5670,13 +5922,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>221</v>
-      </c>
       <c r="D23" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -5690,17 +5942,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>223</v>
-      </c>
       <c r="D24" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5708,17 +5960,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>225</v>
-      </c>
       <c r="D25" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5729,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="16"/>
@@ -5742,13 +5994,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16"/>
@@ -5761,10 +6013,10 @@
         <v>97</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -5777,10 +6029,10 @@
         <v>98</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -5793,10 +6045,10 @@
         <v>99</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
@@ -5809,10 +6061,10 @@
         <v>101</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
@@ -5822,13 +6074,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>234</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
@@ -5838,10 +6090,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>22</v>
@@ -5854,17 +6106,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5875,10 +6127,10 @@
         <v>102</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -5888,10 +6140,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>22</v>
@@ -5904,51 +6156,53 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2">
       <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="16"/>
+      <c r="B38" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="41" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
@@ -5956,13 +6210,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
@@ -5972,105 +6226,121 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" ht="43.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="16" t="s">
-        <v>320</v>
-      </c>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" ht="43.2">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>174</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="20">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="16" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28.8">
       <c r="A46" s="20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>309</v>
+        <v>184</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="16" t="s">
-        <v>310</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8">
+      <c r="A47" s="20">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="16" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6121,10 +6391,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -6139,10 +6409,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -6157,13 +6427,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>49</v>
@@ -6175,13 +6445,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="16"/>
@@ -6191,13 +6461,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>262</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -6207,13 +6477,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="16"/>
@@ -6235,10 +6505,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6248,7 +6518,7 @@
     <col min="3" max="3" width="22.77734375" style="28" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="28" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" style="28" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="28"/>
     <col min="10" max="10" width="13.88671875" style="28" bestFit="1" customWidth="1"/>
@@ -6280,10 +6550,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -6298,10 +6568,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -6316,10 +6586,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>20</v>
@@ -6328,7 +6598,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6339,16 +6609,16 @@
         <v>82</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6356,13 +6626,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -6375,10 +6645,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -6390,13 +6660,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -6408,20 +6678,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6429,17 +6699,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>272</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6447,17 +6717,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>274</v>
-      </c>
       <c r="D11" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6465,17 +6735,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>276</v>
-      </c>
       <c r="D12" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6483,17 +6753,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>278</v>
-      </c>
       <c r="D13" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6501,17 +6771,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>280</v>
-      </c>
       <c r="D14" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6519,17 +6789,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>282</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6537,17 +6807,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>284</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6555,17 +6825,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6573,17 +6843,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6591,17 +6861,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6609,17 +6879,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>289</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6627,13 +6897,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>292</v>
-      </c>
       <c r="D21" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="16"/>
@@ -6643,17 +6913,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6661,17 +6931,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6682,10 +6952,10 @@
         <v>102</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
@@ -6695,10 +6965,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>22</v>
@@ -6711,51 +6981,53 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2">
       <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>240</v>
+      <c r="B27" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="16"/>
+        <v>346</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="41" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
@@ -6763,13 +7035,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="16"/>
@@ -6779,87 +7051,85 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" customFormat="1" ht="43.2">
+    <row r="31" spans="1:6" customFormat="1">
       <c r="A31" s="29">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="16" t="s">
-        <v>320</v>
-      </c>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="43.2">
       <c r="A32" s="29">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2">
       <c r="A33" s="29">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>174</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="29">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="16" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8">
@@ -6867,17 +7137,35 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>309</v>
+        <v>184</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="16" t="s">
-        <v>310</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="16" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6889,10 +7177,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6902,7 +7190,7 @@
     <col min="3" max="3" width="22.77734375" style="28" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="28" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" style="28" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="28"/>
     <col min="10" max="10" width="13.88671875" style="28" bestFit="1" customWidth="1"/>
@@ -6934,10 +7222,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -6952,10 +7240,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -6970,10 +7258,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>20</v>
@@ -6982,7 +7270,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6993,16 +7281,16 @@
         <v>82</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7010,13 +7298,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -7029,10 +7317,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -7044,13 +7332,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -7062,20 +7350,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7083,17 +7371,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>272</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7101,17 +7389,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>274</v>
-      </c>
       <c r="D11" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7119,17 +7407,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>276</v>
-      </c>
       <c r="D12" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7137,17 +7425,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>278</v>
-      </c>
       <c r="D13" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7155,17 +7443,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>280</v>
-      </c>
       <c r="D14" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7173,17 +7461,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>282</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7191,17 +7479,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>284</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7209,17 +7497,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7227,17 +7515,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7245,17 +7533,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7263,17 +7551,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>289</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7281,13 +7569,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>292</v>
-      </c>
       <c r="D21" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="16"/>
@@ -7297,17 +7585,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7315,17 +7603,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7336,10 +7624,10 @@
         <v>102</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
@@ -7349,10 +7637,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>22</v>
@@ -7365,51 +7653,53 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8">
       <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>240</v>
+      <c r="B27" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="16"/>
+        <v>346</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="41" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="29">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:7">
@@ -7417,13 +7707,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="16"/>
@@ -7433,34 +7723,32 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:7" customFormat="1" ht="43.2">
+    <row r="31" spans="1:7" customFormat="1">
       <c r="A31" s="29">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="16" t="s">
-        <v>320</v>
-      </c>
+      <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="43.2">
@@ -7468,53 +7756,53 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2">
       <c r="A33" s="29">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>174</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="29">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="16" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8">
@@ -7522,17 +7810,35 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>309</v>
+        <v>184</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="16" t="s">
-        <v>310</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="16" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/doc/乡村的家网站系统表结构.xlsx
+++ b/doc/乡村的家网站系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="899" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="899"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="363">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1401,6 +1397,38 @@
   </si>
   <si>
     <t>LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>VARCHAR(80)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1968,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1984,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>251</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>252</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>1</v>
@@ -2001,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>2</v>
@@ -2012,10 +2040,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D4" s="38"/>
     </row>
@@ -2024,10 +2052,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>3</v>
@@ -2038,10 +2066,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D6" s="38"/>
     </row>
@@ -2050,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D7" s="38"/>
     </row>
@@ -2062,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="38"/>
     </row>
@@ -2074,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="38"/>
     </row>
@@ -2086,10 +2114,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D10" s="38"/>
     </row>
@@ -2098,10 +2126,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D11" s="38"/>
     </row>
@@ -2110,10 +2138,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" s="38"/>
     </row>
@@ -2122,10 +2150,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="38"/>
     </row>
@@ -2134,10 +2162,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>4</v>
@@ -2148,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>349</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>350</v>
       </c>
       <c r="D15" s="38"/>
     </row>
@@ -2230,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -2248,10 +2276,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -2266,13 +2294,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>49</v>
@@ -2284,13 +2312,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="16"/>
@@ -2300,13 +2328,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>261</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -2316,17 +2344,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2334,17 +2362,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2352,17 +2380,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2370,17 +2398,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2388,17 +2416,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2406,17 +2434,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2424,17 +2452,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2442,13 +2470,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
@@ -2458,13 +2486,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
@@ -2474,13 +2502,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
@@ -2490,13 +2518,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>306</v>
-      </c>
       <c r="D17" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
@@ -2550,10 +2578,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -2568,10 +2596,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -2586,10 +2614,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>63</v>
@@ -2604,19 +2632,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2624,13 +2652,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
@@ -2642,13 +2670,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -2660,17 +2688,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2678,13 +2706,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>49</v>
@@ -2696,13 +2724,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
@@ -2712,10 +2740,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>22</v>
@@ -2728,17 +2756,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.2">
@@ -2746,17 +2774,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2764,17 +2792,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="D14" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8">
@@ -2782,17 +2810,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8">
@@ -2800,17 +2828,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2863,10 +2891,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -2881,10 +2909,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -2899,10 +2927,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>63</v>
@@ -2917,19 +2945,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2937,13 +2965,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
@@ -2955,13 +2983,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -2973,17 +3001,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2991,13 +3019,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>49</v>
@@ -3009,13 +3037,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
@@ -3025,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>22</v>
@@ -3041,17 +3069,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.2">
@@ -3059,17 +3087,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3077,17 +3105,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="D14" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8">
@@ -3095,17 +3123,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8">
@@ -3113,17 +3141,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3" t="s">
@@ -3191,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -3207,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3221,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3237,7 +3265,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -3251,11 +3279,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -3265,13 +3293,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="16"/>
@@ -3281,10 +3309,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>22</v>
@@ -3297,17 +3325,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6">
@@ -3315,17 +3343,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8">
@@ -3333,17 +3361,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3394,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>50</v>
@@ -3412,7 +3440,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>51</v>
@@ -3448,10 +3476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>20</v>
@@ -3498,7 +3526,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3535,13 +3563,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>49</v>
@@ -3559,7 +3587,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>357</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>49</v>
@@ -3577,7 +3605,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>358</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>49</v>
@@ -3595,7 +3623,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>357</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>49</v>
@@ -3613,7 +3641,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>358</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="15"/>
@@ -3629,7 +3657,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>357</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -3663,7 +3691,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>355</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="15"/>
@@ -3676,10 +3704,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>359</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="15"/>
@@ -3692,10 +3720,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>357</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="15"/>
@@ -3708,10 +3736,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>357</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="15"/>
@@ -3724,10 +3752,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>359</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="15"/>
@@ -3743,7 +3771,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>357</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="15"/>
@@ -3759,7 +3787,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>357</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="15"/>
@@ -3791,7 +3819,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="15"/>
@@ -3823,7 +3851,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="15"/>
@@ -3845,7 +3873,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8">
@@ -3899,7 +3927,7 @@
         <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>49</v>
@@ -3917,7 +3945,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>49</v>
@@ -3935,6 +3963,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3942,7 +3971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3983,7 +4012,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>63</v>
@@ -4121,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>66</v>
@@ -4137,7 +4166,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>64</v>
@@ -4153,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -4169,7 +4198,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>66</v>
@@ -4290,7 +4319,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8">
@@ -4450,19 +4479,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4470,10 +4499,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>65</v>
@@ -4488,10 +4517,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>65</v>
@@ -4506,10 +4535,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
@@ -4692,13 +4721,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>49</v>
@@ -4710,13 +4739,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>49</v>
@@ -4731,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>63</v>
@@ -4740,7 +4769,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8">
@@ -4748,19 +4777,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8">
@@ -4768,19 +4797,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4788,13 +4817,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>196</v>
-      </c>
       <c r="D7" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -4806,13 +4835,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -4824,10 +4853,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
@@ -4842,10 +4871,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -4860,13 +4889,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -4878,13 +4907,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="16"/>
@@ -4894,17 +4923,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4912,17 +4941,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4930,19 +4959,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4950,13 +4979,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>49</v>
@@ -4968,13 +4997,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>49</v>
@@ -4986,13 +5015,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -5004,13 +5033,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>214</v>
-      </c>
       <c r="D19" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
@@ -5020,13 +5049,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>216</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>49</v>
@@ -5038,13 +5067,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -5054,13 +5083,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="16"/>
@@ -5070,19 +5099,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>220</v>
-      </c>
       <c r="D23" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5090,17 +5119,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>222</v>
-      </c>
       <c r="D24" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5108,17 +5137,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>224</v>
-      </c>
       <c r="D25" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5126,13 +5155,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="16"/>
@@ -5142,13 +5171,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16"/>
@@ -5158,13 +5187,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -5174,13 +5203,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -5190,13 +5219,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
@@ -5206,13 +5235,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
@@ -5222,13 +5251,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>233</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
@@ -5238,10 +5267,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>22</v>
@@ -5254,17 +5283,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5272,13 +5301,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -5288,10 +5317,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>22</v>
@@ -5304,17 +5333,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="43.2">
@@ -5322,17 +5351,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5340,13 +5369,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>49</v>
@@ -5358,13 +5387,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
@@ -5374,13 +5403,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
@@ -5390,10 +5419,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>22</v>
@@ -5406,17 +5435,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="43.2">
@@ -5424,17 +5453,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5442,17 +5471,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="D45" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28.8">
@@ -5460,17 +5489,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.8">
@@ -5478,17 +5507,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="D47" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5544,13 +5573,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>49</v>
@@ -5562,13 +5591,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>49</v>
@@ -5583,7 +5612,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>63</v>
@@ -5592,7 +5621,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8">
@@ -5600,19 +5629,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8">
@@ -5620,19 +5649,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5640,13 +5669,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>196</v>
-      </c>
       <c r="D7" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -5658,13 +5687,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5676,10 +5705,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
@@ -5694,10 +5723,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -5712,13 +5741,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -5730,13 +5759,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="16"/>
@@ -5746,17 +5775,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5764,17 +5793,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5782,19 +5811,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5802,13 +5831,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>49</v>
@@ -5820,13 +5849,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>49</v>
@@ -5838,13 +5867,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -5856,13 +5885,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>214</v>
-      </c>
       <c r="D19" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
@@ -5872,13 +5901,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>216</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>49</v>
@@ -5890,13 +5919,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="16"/>
@@ -5906,13 +5935,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="16"/>
@@ -5922,19 +5951,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>220</v>
-      </c>
       <c r="D23" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5942,17 +5971,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>222</v>
-      </c>
       <c r="D24" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5960,17 +5989,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>224</v>
-      </c>
       <c r="D25" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5978,13 +6007,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="16"/>
@@ -5994,13 +6023,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16"/>
@@ -6010,13 +6039,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -6026,13 +6055,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -6042,13 +6071,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
@@ -6058,13 +6087,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
@@ -6074,13 +6103,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>233</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
@@ -6090,10 +6119,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>22</v>
@@ -6106,17 +6135,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6124,13 +6153,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -6140,10 +6169,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>22</v>
@@ -6156,17 +6185,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="43.2">
@@ -6174,17 +6203,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6192,13 +6221,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>49</v>
@@ -6210,13 +6239,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
@@ -6226,13 +6255,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
@@ -6242,10 +6271,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>22</v>
@@ -6258,17 +6287,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="43.2">
@@ -6276,17 +6305,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6294,17 +6323,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="D45" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28.8">
@@ -6312,17 +6341,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.8">
@@ -6330,17 +6359,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="D47" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6391,10 +6420,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -6409,10 +6438,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -6427,13 +6456,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>49</v>
@@ -6445,13 +6474,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="16"/>
@@ -6461,13 +6490,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>261</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -6477,13 +6506,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="16"/>
@@ -6550,10 +6579,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -6568,10 +6597,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -6586,10 +6615,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>20</v>
@@ -6598,7 +6627,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6606,19 +6635,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6626,13 +6655,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -6642,13 +6671,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -6660,13 +6689,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -6678,20 +6707,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6699,17 +6728,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>271</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6717,17 +6746,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>273</v>
-      </c>
       <c r="D11" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6735,17 +6764,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>275</v>
-      </c>
       <c r="D12" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6753,17 +6782,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>277</v>
-      </c>
       <c r="D13" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6771,17 +6800,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>279</v>
-      </c>
       <c r="D14" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6789,17 +6818,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>281</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6807,17 +6836,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>283</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6825,17 +6854,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6843,17 +6872,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6861,17 +6890,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6879,17 +6908,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>288</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6897,13 +6926,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>291</v>
-      </c>
       <c r="D21" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="16"/>
@@ -6913,17 +6942,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6931,17 +6960,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6949,13 +6978,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
@@ -6965,10 +6994,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>22</v>
@@ -6981,35 +7010,35 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8">
       <c r="A27" s="29">
         <v>26</v>
       </c>
       <c r="B27" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7017,13 +7046,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -7035,13 +7064,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="16"/>
@@ -7051,13 +7080,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="16"/>
@@ -7067,10 +7096,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>22</v>
@@ -7083,17 +7112,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.2">
@@ -7101,17 +7130,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7119,17 +7148,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="D34" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8">
@@ -7137,17 +7166,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8">
@@ -7155,17 +7184,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="D36" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7222,10 +7251,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>63</v>
@@ -7240,10 +7269,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>64</v>
@@ -7258,10 +7287,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>20</v>
@@ -7270,7 +7299,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7278,19 +7307,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7298,13 +7327,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -7314,13 +7343,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>49</v>
@@ -7332,13 +7361,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -7350,20 +7379,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7371,17 +7400,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>271</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7389,17 +7418,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>273</v>
-      </c>
       <c r="D11" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7407,17 +7436,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>275</v>
-      </c>
       <c r="D12" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7425,17 +7454,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>277</v>
-      </c>
       <c r="D13" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7443,17 +7472,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>279</v>
-      </c>
       <c r="D14" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7461,17 +7490,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>281</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7479,17 +7508,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>283</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7497,17 +7526,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7515,17 +7544,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7533,17 +7562,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7551,17 +7580,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>288</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7569,13 +7598,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>291</v>
-      </c>
       <c r="D21" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="16"/>
@@ -7585,17 +7614,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7603,17 +7632,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7621,13 +7650,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
@@ -7637,10 +7666,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>22</v>
@@ -7653,17 +7682,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8">
@@ -7671,17 +7700,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>345</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>346</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7689,13 +7718,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -7707,13 +7736,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="16"/>
@@ -7723,13 +7752,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="16"/>
@@ -7739,10 +7768,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>22</v>
@@ -7756,17 +7785,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.2">
@@ -7774,17 +7803,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7792,17 +7821,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="D34" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8">
@@ -7810,17 +7839,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8">
@@ -7828,17 +7857,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="D36" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/doc/乡村的家网站系统表结构.xlsx
+++ b/doc/乡村的家网站系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="899"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="899" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="378">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>记录新闻信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -366,14 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平层，跃层，独栋，联排，双拼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砖混，钢混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小区名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,18 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精装，简装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售，出租，使用权交换，经营权转让</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房屋用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,10 +423,6 @@
   </si>
   <si>
     <t>建筑地址-详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板楼、塔楼、平板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,10 +591,6 @@
   <si>
     <t>CHAR(2)</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>审核状态</t>
@@ -671,25 +639,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(16)</t>
-  </si>
-  <si>
     <t>CHAR(1)</t>
-  </si>
-  <si>
-    <t>NUMBER(8)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(50)</t>
-  </si>
-  <si>
-    <t>NUMBER(2)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(30)</t>
   </si>
   <si>
     <t>房屋产权证有效期限</t>
@@ -731,38 +681,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HOUSE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOUSE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本站的用户在登记房产时，记录登记人的用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> house_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑地址-省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -783,202 +709,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DISTRICT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prov</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>built_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>built_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>built_structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bedroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOILET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kitchen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>living_room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朝向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Orientation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>used_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yard_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>户型结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>house_structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>facilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decoration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>neighborhoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_Elevator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop_Elevator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_mortgage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋产权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">houser_right </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>houser_right_valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>houser_right_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Land_ownership</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Land_ownership_valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Land_ownership_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extra_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登记时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>audit_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audit_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人，集体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汉字名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,220 +757,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>land_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>land_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advantage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">region_introduction
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traffic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>土地用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>land_use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction_valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soil_texture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有效土层厚度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>soil_thickness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>土地肥力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Soil_fertility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地块形状</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平整程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smooth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灌溉条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>irrigation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排水条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>water_supply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power_supply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>network_supply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roadway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机械化程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mechanization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peripheral_matching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附属设施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>extra_facilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dist_highway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dist_airport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dist_Highrail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dist_rail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dist_StateRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dist_port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subsidy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扶持政策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supp_policy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品是否有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_valid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1221,39 +822,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">region_introduction
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>service_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核后的发布时间，如果是修改产品，则是修改时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1286,18 +858,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(5000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核员工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>audit_employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,47 +886,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>extra_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp_house_extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp_land</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp_land_extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tp_land_his</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tp_service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tp_service_his</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tn_news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1429,6 +961,455 @@
   </si>
   <si>
     <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOUSE_ID</t>
+  </si>
+  <si>
+    <t>HOUSE_NAME</t>
+  </si>
+  <si>
+    <t>HOUSE_FUNCTION</t>
+  </si>
+  <si>
+    <t>TRANSACTION_TYPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>PROV</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>DISTRICT</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>BUILT_TYPE</t>
+  </si>
+  <si>
+    <t>BUILT_STRUCTURE</t>
+  </si>
+  <si>
+    <t>BEDROOM</t>
+  </si>
+  <si>
+    <t>LIVING_ROOM</t>
+  </si>
+  <si>
+    <t>TOILET</t>
+  </si>
+  <si>
+    <t>KITCHEN</t>
+  </si>
+  <si>
+    <t>ORIENTATION</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>USED_AREA</t>
+  </si>
+  <si>
+    <t>YARD_AREA</t>
+  </si>
+  <si>
+    <t>HOUSE_STRUCTURE</t>
+  </si>
+  <si>
+    <t>FACILITIES</t>
+  </si>
+  <si>
+    <t>DECORATION</t>
+  </si>
+  <si>
+    <t>NEIGHBORHOODS</t>
+  </si>
+  <si>
+    <t>PROPERTY_COMPANY</t>
+  </si>
+  <si>
+    <t>IS_ELEVATOR</t>
+  </si>
+  <si>
+    <t>FLOOR</t>
+  </si>
+  <si>
+    <t>PROP_ELEVATOR</t>
+  </si>
+  <si>
+    <t>IS_MORTGAGE</t>
+  </si>
+  <si>
+    <t>LAND_OWNERSHIP</t>
+  </si>
+  <si>
+    <t>LAND_OWNERSHIP_VALID</t>
+  </si>
+  <si>
+    <t>LAND_OWNERSHIP_TYPE</t>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <t>EXTRA_ID</t>
+  </si>
+  <si>
+    <t>INPUT_TIME</t>
+  </si>
+  <si>
+    <t>AUDIT_TIME</t>
+  </si>
+  <si>
+    <t>RELEASE_TIME</t>
+  </si>
+  <si>
+    <t>AUDIT_STATE</t>
+  </si>
+  <si>
+    <t>AUDIT_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>RELEASE_STATE</t>
+  </si>
+  <si>
+    <t>IS_VALID</t>
+  </si>
+  <si>
+    <t>REGION_NAME</t>
+  </si>
+  <si>
+    <t>ADVANTAGE</t>
+  </si>
+  <si>
+    <t>TRAFFIC</t>
+  </si>
+  <si>
+    <t>PERIPHERAL_MATCHING</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAND_ID</t>
+  </si>
+  <si>
+    <t>LAND_NAME</t>
+  </si>
+  <si>
+    <t>LAND_USE</t>
+  </si>
+  <si>
+    <t>TRANSACTION_VALID</t>
+  </si>
+  <si>
+    <t>SOIL_TEXTURE</t>
+  </si>
+  <si>
+    <t>SOIL_THICKNESS</t>
+  </si>
+  <si>
+    <t>SOIL_FERTILITY</t>
+  </si>
+  <si>
+    <t>SHAPE</t>
+  </si>
+  <si>
+    <t>SMOOTH</t>
+  </si>
+  <si>
+    <t>IRRIGATION</t>
+  </si>
+  <si>
+    <t>DRAIN</t>
+  </si>
+  <si>
+    <t>WATER_SUPPLY</t>
+  </si>
+  <si>
+    <t>POWER_SUPPLY</t>
+  </si>
+  <si>
+    <t>NETWORK_SUPPLY</t>
+  </si>
+  <si>
+    <t>ROADWAY</t>
+  </si>
+  <si>
+    <t>MECHANIZATION</t>
+  </si>
+  <si>
+    <t>EXTRA_FACILITIES</t>
+  </si>
+  <si>
+    <t>PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>OUTPUT_PRODUCT</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIST_HIGHWAY</t>
+  </si>
+  <si>
+    <t>DIST_AIRPORT</t>
+  </si>
+  <si>
+    <t>DIST_HIGHRAIL</t>
+  </si>
+  <si>
+    <t>DIST_RAIL</t>
+  </si>
+  <si>
+    <t>DIST_STATEROAD</t>
+  </si>
+  <si>
+    <t>DIST_PORT</t>
+  </si>
+  <si>
+    <t>WORKERS</t>
+  </si>
+  <si>
+    <t>INCOME</t>
+  </si>
+  <si>
+    <t>SUBSIDY</t>
+  </si>
+  <si>
+    <t>SUPP_POLICY</t>
+  </si>
+  <si>
+    <t>SERVICE_ID</t>
+  </si>
+  <si>
+    <t>SERVICE_NAME</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPE</t>
+  </si>
+  <si>
+    <t>INTRODUCTION</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWS_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5000)</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGION_INTRODUCTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_house_extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGION_INTRODUCTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_land_extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tn_news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIT_EMPLOYEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证1，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：出售:B：出租:C：使用权交换，D：经营权转让</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租时使用，基本单位是月，如填6，表示6个月的价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILT_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：板楼、2：塔楼:3：平板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：砖混:2：钢混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：东，2：南，3西,4北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：平层:2：跃层:3：独栋，4：联排:5：双拼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：精装:2：简装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：商品房:2：小产权房，3：自建房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.国有土地使用证，2.集体土地使用证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOUSE_RIGHT_VALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOUSE_RIGHT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1569,11 +1550,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,6 +1681,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1996,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2012,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>1</v>
@@ -2026,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>2</v>
@@ -2040,10 +2038,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="D4" s="38"/>
     </row>
@@ -2052,10 +2050,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>3</v>
@@ -2066,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="D6" s="38"/>
     </row>
@@ -2078,10 +2076,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="D7" s="38"/>
     </row>
@@ -2090,10 +2088,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D8" s="38"/>
     </row>
@@ -2102,10 +2100,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D9" s="38"/>
     </row>
@@ -2114,10 +2112,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="D10" s="38"/>
     </row>
@@ -2126,10 +2124,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D11" s="38"/>
     </row>
@@ -2138,10 +2136,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D12" s="38"/>
     </row>
@@ -2150,10 +2148,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="D13" s="38"/>
     </row>
@@ -2162,10 +2160,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>4</v>
@@ -2176,10 +2174,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="D15" s="38"/>
     </row>
@@ -2219,14 +2217,14 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="34"/>
     <col min="2" max="2" width="15.109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="34" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="34" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" style="34" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" style="35" customWidth="1"/>
@@ -2235,22 +2233,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2258,16 +2256,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -2276,16 +2274,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -2294,31 +2292,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="43.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="16"/>
@@ -2328,13 +2326,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -2344,17 +2342,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="35" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2362,17 +2360,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="37" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2380,17 +2378,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2398,17 +2396,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2416,17 +2414,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="37" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2434,17 +2432,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="37" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2452,17 +2450,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2470,13 +2468,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
@@ -2486,13 +2484,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
@@ -2502,13 +2500,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
@@ -2518,13 +2516,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
@@ -2540,7 +2538,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2555,22 +2553,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2578,16 +2576,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -2596,16 +2594,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -2614,16 +2612,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -2632,19 +2630,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2652,16 +2650,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -2670,16 +2668,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -2688,17 +2686,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="41" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2706,16 +2704,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -2724,13 +2722,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
@@ -2740,13 +2738,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="16"/>
@@ -2756,17 +2754,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.2">
@@ -2774,17 +2772,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2792,17 +2790,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8">
@@ -2810,17 +2808,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8">
@@ -2828,17 +2826,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="16" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2853,7 +2851,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2862,28 +2860,28 @@
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2891,16 +2889,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -2909,16 +2907,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -2927,16 +2925,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -2945,19 +2943,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2965,16 +2963,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -2983,16 +2981,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -3001,17 +2999,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="41" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3019,16 +3017,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -3037,13 +3035,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16"/>
@@ -3053,13 +3051,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="16"/>
@@ -3069,17 +3067,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.2">
@@ -3087,17 +3085,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3105,17 +3103,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="16" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8">
@@ -3123,17 +3121,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8">
@@ -3141,17 +3139,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="16" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3164,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3180,22 +3178,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3203,14 +3201,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -3219,14 +3219,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>335</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="15"/>
     </row>
@@ -3235,12 +3237,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -3249,14 +3255,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>337</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -3265,11 +3273,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="15"/>
@@ -3279,11 +3289,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>339</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -3293,13 +3305,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="16"/>
@@ -3309,13 +3321,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="16"/>
@@ -3325,17 +3337,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="16" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6">
@@ -3343,17 +3355,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8">
@@ -3361,17 +3373,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3397,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3399,22 +3411,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3422,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>355</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -3440,16 +3452,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>351</v>
+        <v>233</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>357</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>345</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="15"/>
     </row>
@@ -3458,16 +3470,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -3476,17 +3488,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>352</v>
+        <v>234</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
@@ -3494,16 +3504,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="15"/>
     </row>
@@ -3526,7 +3536,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3540,22 +3550,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3563,16 +3573,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>356</v>
+        <v>238</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -3581,16 +3591,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="15"/>
     </row>
@@ -3599,16 +3609,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>358</v>
+        <v>240</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -3617,16 +3627,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -3635,13 +3645,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>358</v>
+        <v>240</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="15"/>
@@ -3651,13 +3661,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -3667,17 +3677,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3685,13 +3695,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="15"/>
@@ -3701,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>359</v>
+        <v>241</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="15"/>
@@ -3717,13 +3727,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="15"/>
@@ -3733,13 +3743,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="15"/>
@@ -3749,13 +3759,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>359</v>
+        <v>241</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="15"/>
@@ -3765,13 +3775,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="15"/>
@@ -3781,13 +3791,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="15"/>
@@ -3797,29 +3807,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="15"/>
@@ -3829,13 +3841,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="15"/>
@@ -3845,13 +3857,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>360</v>
+        <v>242</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="15"/>
@@ -3861,19 +3873,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8">
@@ -3881,19 +3893,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8">
@@ -3901,19 +3913,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3921,16 +3933,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -3939,16 +3951,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="15"/>
     </row>
@@ -3986,22 +3998,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4009,16 +4021,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -4027,16 +4039,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="15"/>
     </row>
@@ -4045,16 +4057,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -4063,16 +4075,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -4081,13 +4093,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="15"/>
@@ -4097,13 +4109,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
@@ -4113,17 +4125,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4131,13 +4143,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="15"/>
@@ -4147,13 +4159,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="15"/>
@@ -4163,13 +4175,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="15"/>
@@ -4179,13 +4191,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="15"/>
@@ -4195,13 +4207,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="15"/>
@@ -4211,13 +4223,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="15"/>
@@ -4227,13 +4239,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="15"/>
@@ -4243,13 +4255,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="15"/>
@@ -4259,13 +4271,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="15"/>
@@ -4275,13 +4287,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="15"/>
@@ -4291,13 +4303,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="15"/>
@@ -4307,19 +4319,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8">
@@ -4327,19 +4339,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8">
@@ -4347,19 +4359,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4367,16 +4379,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -4385,16 +4397,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="15"/>
     </row>
@@ -4430,22 +4442,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4461,16 +4473,16 @@
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -4479,19 +4491,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4499,16 +4511,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -4517,16 +4529,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -4535,13 +4547,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -4680,10 +4692,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4692,321 +4704,322 @@
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2">
+    <row r="1" spans="1:7" ht="16.2">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" ht="43.2">
+    <row r="4" spans="1:7" ht="43.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>196</v>
+        <v>374</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6">
+        <v>360</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>176</v>
+        <v>261</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>205</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>262</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="22"/>
+        <v>376</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>363</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>208</v>
+        <v>92</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -5015,16 +5028,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -5033,15 +5046,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="21"/>
+        <v>247</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
@@ -5049,33 +5064,35 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="16" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="20">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
@@ -5083,53 +5100,51 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="20">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>246</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.8">
       <c r="A24" s="20">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="16" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5137,17 +5152,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>173</v>
+        <v>274</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>240</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5155,29 +5170,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="16" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16"/>
@@ -5187,13 +5204,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -5203,13 +5220,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -5219,13 +5236,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
@@ -5235,13 +5252,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
@@ -5250,278 +5267,264 @@
       <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="B32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.8">
       <c r="A34" s="20">
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>234</v>
+        <v>373</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>370</v>
+      </c>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="1:7" ht="28.8">
       <c r="A35" s="20">
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" spans="1:6" ht="28.8">
+    <row r="36" spans="1:7" ht="28.8">
       <c r="A36" s="20">
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8">
       <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2">
+      <c r="B37" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>344</v>
+      <c r="B38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>239</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="20">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="20">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" ht="43.2">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="43.2">
+      <c r="F42" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="43.2">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>244</v>
+        <v>153</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8">
       <c r="A45" s="20">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8">
       <c r="A46" s="20">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.8">
-      <c r="A47" s="20">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="20"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5532,10 +5535,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5544,321 +5547,322 @@
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2">
+    <row r="1" spans="1:7" ht="16.2">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" ht="43.2">
+    <row r="4" spans="1:7" ht="43.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>196</v>
+        <v>374</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6">
+        <v>360</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>176</v>
+        <v>261</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>205</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>262</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="22"/>
+        <v>376</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>363</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>208</v>
+        <v>92</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -5867,16 +5871,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -5885,15 +5889,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="21"/>
+        <v>247</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
@@ -5901,33 +5907,35 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="16" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="20">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
@@ -5935,53 +5943,51 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8">
+    <row r="23" spans="1:6">
       <c r="A23" s="20">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>246</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.8">
       <c r="A24" s="20">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="16" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5989,17 +5995,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>173</v>
+        <v>274</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>240</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6007,29 +6013,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="16" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16"/>
@@ -6039,13 +6047,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -6055,13 +6063,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -6071,13 +6079,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="16"/>
@@ -6087,13 +6095,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
@@ -6102,275 +6110,264 @@
       <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="B32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.8">
       <c r="A34" s="20">
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>234</v>
+        <v>373</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>370</v>
+      </c>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="1:7" ht="28.8">
       <c r="A35" s="20">
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" spans="1:6" ht="28.8">
+    <row r="36" spans="1:7" ht="28.8">
       <c r="A36" s="20">
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8">
       <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2">
+      <c r="B37" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>344</v>
+      <c r="B38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>239</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="20">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="20">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" ht="43.2">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="43.2">
+      <c r="F42" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="43.2">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>244</v>
+        <v>153</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8">
       <c r="A45" s="20">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8">
       <c r="A46" s="20">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.8">
-      <c r="A47" s="20">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="16" t="s">
-        <v>308</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6383,7 +6380,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6397,22 +6394,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6420,16 +6417,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -6438,16 +6435,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -6456,31 +6453,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
+    <row r="5" spans="1:6">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="16"/>
@@ -6490,13 +6487,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -6506,13 +6503,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="16"/>
@@ -6536,8 +6533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6549,29 +6546,29 @@
     <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
     <col min="6" max="6" width="22.88671875" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" style="28" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="28"/>
-    <col min="10" max="10" width="13.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="28"/>
+    <col min="8" max="8" width="8.88671875" style="28"/>
+    <col min="9" max="9" width="13.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6579,16 +6576,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -6597,16 +6594,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -6615,19 +6612,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6635,19 +6632,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6655,13 +6652,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -6671,16 +6668,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -6689,16 +6686,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -6707,20 +6704,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="31" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6728,17 +6725,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="31" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6746,17 +6743,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="31" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6764,17 +6761,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6782,17 +6779,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6800,17 +6797,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6818,17 +6815,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6836,17 +6833,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6854,17 +6851,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6872,17 +6869,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6890,17 +6887,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6908,17 +6905,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="32" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6926,13 +6923,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="16"/>
@@ -6942,17 +6939,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6960,17 +6957,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6978,13 +6975,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
@@ -6994,13 +6991,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
@@ -7010,17 +7007,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="25" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8">
@@ -7028,17 +7025,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="41" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7046,16 +7043,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -7064,13 +7061,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="16"/>
@@ -7080,13 +7077,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="16"/>
@@ -7096,13 +7093,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="16"/>
@@ -7112,17 +7109,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="16" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.2">
@@ -7130,17 +7127,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7148,17 +7145,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="16" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8">
@@ -7166,17 +7163,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8">
@@ -7184,17 +7181,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="16" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7209,7 +7206,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7219,31 +7216,31 @@
     <col min="3" max="3" width="22.77734375" style="28" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="28" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="17" customWidth="1"/>
     <col min="7" max="7" width="11" style="28" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="28"/>
-    <col min="10" max="10" width="13.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="28"/>
+    <col min="8" max="8" width="8.88671875" style="28"/>
+    <col min="9" max="9" width="13.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7251,16 +7248,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -7269,16 +7266,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -7287,19 +7284,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7307,19 +7304,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7327,13 +7324,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="16"/>
@@ -7343,16 +7340,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -7361,16 +7358,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -7379,20 +7376,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="31" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7400,17 +7397,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="31" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7418,17 +7415,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="31" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7436,17 +7433,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7454,17 +7451,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7472,17 +7469,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7490,17 +7487,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7508,294 +7505,293 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="29">
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="29">
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="29">
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="29">
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="29">
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>293</v>
+        <v>315</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" s="29">
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="29">
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="29">
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="28.8">
+    <row r="25" spans="1:6" ht="28.8">
       <c r="A25" s="29">
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="28.8">
+    <row r="26" spans="1:6" ht="28.8">
       <c r="A26" s="29">
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8">
       <c r="A27" s="29">
         <v>26</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="29">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" s="29">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" s="29">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:7" customFormat="1">
+    <row r="31" spans="1:6" customFormat="1">
       <c r="A31" s="29">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" ht="43.2">
+    </row>
+    <row r="32" spans="1:6" ht="43.2">
       <c r="A32" s="29">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="16" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.2">
@@ -7803,17 +7799,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7821,17 +7817,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="16" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8">
@@ -7839,17 +7835,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8">
@@ -7857,17 +7853,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="16" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
